--- a/openai_news.xlsx
+++ b/openai_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,141 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>글로벌(OpenAI)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>How Indeed uses AI to help evolve the job search</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon, 26 Jan 2026 00:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/indeed-maggie-hulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>글로벌(OpenAI)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Unrolling the Codex agent loop</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri, 23 Jan 2026 12:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>글로벌(OpenAI)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu, 22 Jan 2026 12:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/scaling-postgresql</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>글로벌(OpenAI)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Inside Praktika's conversational approach to language learning</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Thu, 22 Jan 2026 05:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/praktika</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>글로벌(OpenAI)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Thu, 22 Jan 2026 00:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/openai_news.xlsx
+++ b/openai_news.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>수집일</t>
+          <t>발행일</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>카테고리</t>
+          <t>기관</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>기사제목</t>
+          <t>원문 제목</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>발행일</t>
+          <t>한글 번역 제목</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>글로벌(OpenAI)</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mon, 26 Jan 2026 00:00:00 GMT</t>
+          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,12 +490,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>글로벌(OpenAI)</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fri, 23 Jan 2026 12:00:00 GMT</t>
+          <t>Codex 에이전트 루프 풀기</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,12 +517,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>글로벌(OpenAI)</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu, 22 Jan 2026 12:00:00 GMT</t>
+          <t>PostgreSQL을 확장하여 8억 명의 ChatGPT 사용자 지원</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,12 +544,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>글로벌(OpenAI)</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu, 22 Jan 2026 05:00:00 GMT</t>
+          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>글로벌(OpenAI)</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thu, 22 Jan 2026 00:00:00 GMT</t>
+          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/openai_news.xlsx
+++ b/openai_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>수집일</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>발행일</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>기관</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>원문 제목</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>한글 번역 제목</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>링크</t>
         </is>
@@ -463,25 +468,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>How Indeed uses AI to help evolve the job search</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://openai.com/index/indeed-maggie-hulce</t>
         </is>
@@ -490,25 +500,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2026-01-23</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Unrolling the Codex agent loop</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Codex 에이전트 루프 풀기</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
         </is>
@@ -517,25 +532,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>PostgreSQL을 확장하여 8억 명의 ChatGPT 사용자 지원</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://openai.com/index/scaling-postgresql</t>
         </is>
@@ -544,25 +564,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Inside Praktika's conversational approach to language learning</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://openai.com/index/praktika</t>
         </is>
@@ -571,27 +596,192 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/higgsfield</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Introducing Edu for Countries</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>국가별 교육 소개</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/edu-for-countries</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>How countries can end the capability overhang</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>국가가 역량 과잉을 어떻게 끝낼 수 있는가</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/how-countries-can-end-the-capability-overhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Horizon 1000: Advancing AI for primary healthcare</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Horizon 1000: 1차 의료를 위한 AI 발전</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/horizon-1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Stargate Community</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>스타게이트 커뮤니티</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/stargate-community</t>
         </is>
       </c>
     </row>

--- a/openai_news.xlsx
+++ b/openai_news.xlsx
@@ -468,14 +468,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2026-01-27</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>OpenAI</t>
@@ -483,31 +483,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>How Indeed uses AI to help evolve the job search</t>
+          <t>PVH reimagines the future of fashion with OpenAI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
+          <t>PVH는 OpenAI를 통해 패션의 미래를 재구상합니다.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://openai.com/index/indeed-maggie-hulce</t>
+          <t>https://openai.com/index/pvh-future-of-fashion</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2026-01-27</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>OpenAI</t>
@@ -515,31 +515,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unrolling the Codex agent loop</t>
+          <t>Powering tax donations with AI powered personalized recommendations</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Codex 에이전트 루프 풀기</t>
+          <t>AI 기반 맞춤형 추천으로 세금 기부 지원</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
+          <t>https://openai.com/index/trustbank</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2026-01-27</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>OpenAI</t>
@@ -547,29 +547,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
+          <t>Introducing Prism</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PostgreSQL을 확장하여 8억 명의 ChatGPT 사용자 지원</t>
+          <t>프리즘 소개</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://openai.com/index/scaling-postgresql</t>
+          <t>https://openai.com/index/introducing-prism</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,29 +579,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Inside Praktika's conversational approach to language learning</t>
+          <t>How Indeed uses AI to help evolve the job search</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
+          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://openai.com/index/praktika</t>
+          <t>https://openai.com/index/indeed-maggie-hulce</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,29 +611,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
+          <t>Unrolling the Codex agent loop</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
+          <t>Codex 에이전트 루프 풀기</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
+          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,29 +643,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
+          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
+          <t>8억 명의 ChatGPT 사용자를 지원하기 위해 PostgreSQL 확장</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://openai.com/index/higgsfield</t>
+          <t>https://openai.com/index/scaling-postgresql</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,29 +675,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Introducing Edu for Countries</t>
+          <t>Inside Praktika's conversational approach to language learning</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>국가별 교육 소개</t>
+          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://openai.com/index/edu-for-countries</t>
+          <t>https://openai.com/index/praktika</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,29 +707,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>How countries can end the capability overhang</t>
+          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>국가가 역량 과잉을 어떻게 끝낼 수 있는가</t>
+          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://openai.com/index/how-countries-can-end-the-capability-overhang</t>
+          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,29 +739,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Horizon 1000: Advancing AI for primary healthcare</t>
+          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Horizon 1000: 1차 의료를 위한 AI 발전</t>
+          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://openai.com/index/horizon-1000</t>
+          <t>https://openai.com/index/higgsfield</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stargate Community</t>
+          <t>Introducing Edu for Countries</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>스타게이트 커뮤니티</t>
+          <t>국가별 교육 소개</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://openai.com/index/stargate-community</t>
+          <t>https://openai.com/index/edu-for-countries</t>
         </is>
       </c>
     </row>

--- a/openai_news.xlsx
+++ b/openai_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,29 +483,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PVH reimagines the future of fashion with OpenAI</t>
+          <t>The next chapter for AI in the EU</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PVH는 OpenAI를 통해 패션의 미래를 재구상합니다.</t>
+          <t>EU AI의 다음 장</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://openai.com/index/pvh-future-of-fashion</t>
+          <t>https://openai.com/index/the-next-chapter-for-ai-in-the-eu</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,29 +515,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Powering tax donations with AI powered personalized recommendations</t>
+          <t>EMEA Youth &amp; Wellbeing Grant</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AI 기반 맞춤형 추천으로 세금 기부 지원</t>
+          <t>EMEA 청소년 및 웰빙 보조금</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://openai.com/index/trustbank</t>
+          <t>https://openai.com/index/emea-youth-and-wellbeing-grant</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Introducing Prism</t>
+          <t>Keeping your data safe when an AI agent clicks a link</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>프리즘 소개</t>
+          <t>AI 에이전트가 링크를 클릭할 때 데이터를 안전하게 유지</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://openai.com/index/introducing-prism</t>
+          <t>https://openai.com/index/ai-agent-link-safety</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>How Indeed uses AI to help evolve the job search</t>
+          <t>PVH reimagines the future of fashion with OpenAI</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
+          <t>PVH는 OpenAI를 통해 패션의 미래를 재구상합니다.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://openai.com/index/indeed-maggie-hulce</t>
+          <t>https://openai.com/index/pvh-future-of-fashion</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unrolling the Codex agent loop</t>
+          <t>Powering tax donations with AI powered personalized recommendations</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Codex 에이전트 루프 풀기</t>
+          <t>AI 기반 맞춤형 추천으로 세금 기부 지원</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
+          <t>https://openai.com/index/trustbank</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
+          <t>Introducing Prism</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8억 명의 ChatGPT 사용자를 지원하기 위해 PostgreSQL 확장</t>
+          <t>프리즘 소개</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://openai.com/index/scaling-postgresql</t>
+          <t>https://openai.com/index/introducing-prism</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Inside Praktika's conversational approach to language learning</t>
+          <t>How Indeed uses AI to help evolve the job search</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
+          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://openai.com/index/praktika</t>
+          <t>https://openai.com/index/indeed-maggie-hulce</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,17 +707,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
+          <t>Unrolling the Codex agent loop</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
+          <t>Codex 에이전트 루프 풀기</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
+          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
+          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
+          <t>8억 명의 ChatGPT 사용자를 지원하기 위해 PostgreSQL 확장</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://openai.com/index/higgsfield</t>
+          <t>https://openai.com/index/scaling-postgresql</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,187 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Inside Praktika's conversational approach to language learning</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/praktika</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>How countries can end the capability overhang</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>국가가 역량 과잉을 어떻게 끝낼 수 있는가</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/how-countries-can-end-the-capability-overhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/higgsfield</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Introducing Edu for Countries</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>국가별 교육 소개</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://openai.com/index/edu-for-countries</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Horizon 1000: Advancing AI for primary healthcare</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Horizon 1000: 1차 의료를 위한 AI 발전</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/horizon-1000</t>
         </is>
       </c>
     </row>

--- a/openai_news.xlsx
+++ b/openai_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,14 +468,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2026-01-29</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>OpenAI</t>
@@ -483,31 +483,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The next chapter for AI in the EU</t>
+          <t>Inside OpenAI’s in-house data agent</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EU AI의 다음 장</t>
+          <t>OpenAI의 사내 데이터 에이전트 내부</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://openai.com/index/the-next-chapter-for-ai-in-the-eu</t>
+          <t>https://openai.com/index/inside-our-in-house-data-agent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2026-01-29</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>OpenAI</t>
@@ -515,31 +515,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EMEA Youth &amp; Wellbeing Grant</t>
+          <t>Taisei Corporation shapes the next generation of talent with ChatGPT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EMEA 청소년 및 웰빙 보조금</t>
+          <t>Taisei Corporation은 ChatGPT를 통해 차세대 인재를 양성합니다.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://openai.com/index/emea-youth-and-wellbeing-grant</t>
+          <t>https://openai.com/index/taisei</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2026-01-29</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>OpenAI</t>
@@ -547,29 +547,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Keeping your data safe when an AI agent clicks a link</t>
+          <t>Retiring GPT-4o, GPT-4.1, GPT-4.1 mini, and OpenAI o4-mini in ChatGPT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AI 에이전트가 링크를 클릭할 때 데이터를 안전하게 유지</t>
+          <t>ChatGPT에서 GPT-4o, GPT-4.1, GPT-4.1 mini 및 OpenAI o4-mini 사용 중지</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://openai.com/index/ai-agent-link-safety</t>
+          <t>https://openai.com/index/retiring-gpt-4o-and-older-models</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,29 +579,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PVH reimagines the future of fashion with OpenAI</t>
+          <t>The next chapter for AI in the EU</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PVH는 OpenAI를 통해 패션의 미래를 재구상합니다.</t>
+          <t>EU AI의 다음 장</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://openai.com/index/pvh-future-of-fashion</t>
+          <t>https://openai.com/index/the-next-chapter-for-ai-in-the-eu</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,29 +611,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Powering tax donations with AI powered personalized recommendations</t>
+          <t>EMEA Youth &amp; Wellbeing Grant</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AI 기반 맞춤형 추천으로 세금 기부 지원</t>
+          <t>EMEA 청소년 및 웰빙 보조금</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://openai.com/index/trustbank</t>
+          <t>https://openai.com/index/emea-youth-and-wellbeing-grant</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Introducing Prism</t>
+          <t>Keeping your data safe when an AI agent clicks a link</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>프리즘 소개</t>
+          <t>AI 에이전트가 링크를 클릭할 때 데이터를 안전하게 유지</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://openai.com/index/introducing-prism</t>
+          <t>https://openai.com/index/ai-agent-link-safety</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>How Indeed uses AI to help evolve the job search</t>
+          <t>PVH reimagines the future of fashion with OpenAI</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
+          <t>PVH는 OpenAI를 통해 패션의 미래를 재구상합니다.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://openai.com/index/indeed-maggie-hulce</t>
+          <t>https://openai.com/index/pvh-future-of-fashion</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,17 +707,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Unrolling the Codex agent loop</t>
+          <t>Powering tax donations with AI powered personalized recommendations</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Codex 에이전트 루프 풀기</t>
+          <t>AI 기반 맞춤형 추천으로 세금 기부 지원</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
+          <t>https://openai.com/index/trustbank</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
+          <t>Introducing Prism</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8억 명의 ChatGPT 사용자를 지원하기 위해 PostgreSQL 확장</t>
+          <t>프리즘 소개</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://openai.com/index/scaling-postgresql</t>
+          <t>https://openai.com/index/introducing-prism</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Inside Praktika's conversational approach to language learning</t>
+          <t>How Indeed uses AI to help evolve the job search</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
+          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://openai.com/index/praktika</t>
+          <t>https://openai.com/index/indeed-maggie-hulce</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,29 +803,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
+          <t>Unrolling the Codex agent loop</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
+          <t>Codex 에이전트 루프 풀기</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
+          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,17 +835,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>How countries can end the capability overhang</t>
+          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>국가가 역량 과잉을 어떻게 끝낼 수 있는가</t>
+          <t>8억 명의 ChatGPT 사용자를 지원하기 위해 PostgreSQL 확장</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://openai.com/index/how-countries-can-end-the-capability-overhang</t>
+          <t>https://openai.com/index/scaling-postgresql</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
+          <t>Inside Praktika's conversational approach to language learning</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
+          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://openai.com/index/higgsfield</t>
+          <t>https://openai.com/index/praktika</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Introducing Edu for Countries</t>
+          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>국가별 교육 소개</t>
+          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://openai.com/index/edu-for-countries</t>
+          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
         </is>
       </c>
     </row>
@@ -921,25 +921,121 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>How countries can end the capability overhang</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>국가가 역량 과잉을 어떻게 끝낼 수 있는가</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/how-countries-can-end-the-capability-overhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/higgsfield</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Introducing Edu for Countries</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>국가별 교육 소개</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/edu-for-countries</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>2026-01-20</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Horizon 1000: Advancing AI for primary healthcare</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Horizon 1000: 1차 의료를 위한 AI 발전</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://openai.com/index/horizon-1000</t>
         </is>

--- a/openai_news.xlsx
+++ b/openai_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,29 +483,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Inside OpenAI’s in-house data agent</t>
+          <t>Snowflake and OpenAI partner to bring frontier intelligence to enterprise data</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OpenAI의 사내 데이터 에이전트 내부</t>
+          <t>Snowflake와 OpenAI가 협력하여 기업 데이터에 최첨단 인텔리전스를 제공합니다.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://openai.com/index/inside-our-in-house-data-agent</t>
+          <t>https://openai.com/index/snowflake-partnership</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Taisei Corporation shapes the next generation of talent with ChatGPT</t>
+          <t>Introducing the Codex app</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Taisei Corporation은 ChatGPT를 통해 차세대 인재를 양성합니다.</t>
+          <t>코덱스 앱을 소개합니다</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://openai.com/index/taisei</t>
+          <t>https://openai.com/index/introducing-the-codex-app</t>
         </is>
       </c>
     </row>
@@ -547,31 +547,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Retiring GPT-4o, GPT-4.1, GPT-4.1 mini, and OpenAI o4-mini in ChatGPT</t>
+          <t>Inside OpenAI’s in-house data agent</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ChatGPT에서 GPT-4o, GPT-4.1, GPT-4.1 mini 및 OpenAI o4-mini 사용 중지</t>
+          <t>OpenAI의 사내 데이터 에이전트 내부</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://openai.com/index/retiring-gpt-4o-and-older-models</t>
+          <t>https://openai.com/index/inside-our-in-house-data-agent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2026-01-29</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>OpenAI</t>
@@ -579,31 +579,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The next chapter for AI in the EU</t>
+          <t>Taisei Corporation shapes the next generation of talent with ChatGPT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EU AI의 다음 장</t>
+          <t>Taisei Corporation은 ChatGPT를 통해 차세대 인재를 양성합니다.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://openai.com/index/the-next-chapter-for-ai-in-the-eu</t>
+          <t>https://openai.com/index/taisei</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2026-01-29</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>OpenAI</t>
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EMEA Youth &amp; Wellbeing Grant</t>
+          <t>Retiring GPT-4o, GPT-4.1, GPT-4.1 mini, and OpenAI o4-mini in ChatGPT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EMEA 청소년 및 웰빙 보조금</t>
+          <t>ChatGPT에서 GPT-4o, GPT-4.1, GPT-4.1 mini 및 OpenAI o4-mini 사용 중지</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://openai.com/index/emea-youth-and-wellbeing-grant</t>
+          <t>https://openai.com/index/retiring-gpt-4o-and-older-models</t>
         </is>
       </c>
     </row>
@@ -643,29 +643,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Keeping your data safe when an AI agent clicks a link</t>
+          <t>The next chapter for AI in the EU</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AI 에이전트가 링크를 클릭할 때 데이터를 안전하게 유지</t>
+          <t>EU AI의 다음 장</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://openai.com/index/ai-agent-link-safety</t>
+          <t>https://openai.com/index/the-next-chapter-for-ai-in-the-eu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,29 +675,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PVH reimagines the future of fashion with OpenAI</t>
+          <t>EMEA Youth &amp; Wellbeing Grant</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PVH는 OpenAI를 통해 패션의 미래를 재구상합니다.</t>
+          <t>EMEA 청소년 및 웰빙 보조금</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://openai.com/index/pvh-future-of-fashion</t>
+          <t>https://openai.com/index/emea-youth-and-wellbeing-grant</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,17 +707,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Powering tax donations with AI powered personalized recommendations</t>
+          <t>Keeping your data safe when an AI agent clicks a link</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AI 기반 맞춤형 추천으로 세금 기부 지원</t>
+          <t>AI 에이전트가 링크를 클릭할 때 데이터를 안전하게 유지</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://openai.com/index/trustbank</t>
+          <t>https://openai.com/index/ai-agent-link-safety</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Introducing Prism</t>
+          <t>Powering tax donations with AI powered personalized recommendations</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>프리즘 소개</t>
+          <t>AI 기반 맞춤형 추천으로 세금 기부 지원</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://openai.com/index/introducing-prism</t>
+          <t>https://openai.com/index/trustbank</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>How Indeed uses AI to help evolve the job search</t>
+          <t>Introducing Prism</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
+          <t>프리즘 소개</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://openai.com/index/indeed-maggie-hulce</t>
+          <t>https://openai.com/index/introducing-prism</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Unrolling the Codex agent loop</t>
+          <t>PVH reimagines the future of fashion with OpenAI</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Codex 에이전트 루프 풀기</t>
+          <t>PVH는 OpenAI를 통해 패션의 미래를 재구상합니다.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
+          <t>https://openai.com/index/pvh-future-of-fashion</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,17 +835,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
+          <t>How Indeed uses AI to help evolve the job search</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8억 명의 ChatGPT 사용자를 지원하기 위해 PostgreSQL 확장</t>
+          <t>인디드가 AI를 활용하여 구직 활동을 발전시키는 방법</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://openai.com/index/scaling-postgresql</t>
+          <t>https://openai.com/index/indeed-maggie-hulce</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Inside Praktika's conversational approach to language learning</t>
+          <t>Unrolling the Codex agent loop</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
+          <t>Codex 에이전트 루프 풀기</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://openai.com/index/praktika</t>
+          <t>https://openai.com/index/unrolling-the-codex-agent-loop</t>
         </is>
       </c>
     </row>
@@ -899,29 +899,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
+          <t>Scaling PostgreSQL to power 800 million ChatGPT users</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
+          <t>8억 명의 ChatGPT 사용자를 지원하기 위해 PostgreSQL 확장</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
+          <t>https://openai.com/index/scaling-postgresql</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>How countries can end the capability overhang</t>
+          <t>Inside Praktika's conversational approach to language learning</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>국가가 역량 과잉을 어떻게 끝낼 수 있는가</t>
+          <t>Praktika의 언어 학습에 대한 대화식 접근 방식 살펴보기</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://openai.com/index/how-countries-can-end-the-capability-overhang</t>
+          <t>https://openai.com/index/praktika</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -963,24 +963,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
+          <t>Inside GPT-5 for Work: How Businesses Use GPT-5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
+          <t>업무용 GPT-5 내부: 기업이 GPT-5를 사용하는 방법</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://openai.com/index/higgsfield</t>
+          <t>https://openai.com/business/guides-and-resources/chatgpt-usage-and-adoption-patterns-at-work</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -995,47 +995,111 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Introducing Edu for Countries</t>
+          <t>How countries can end the capability overhang</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>국가별 교육 소개</t>
+          <t>국가가 역량 과잉을 어떻게 끝낼 수 있는가</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://openai.com/index/edu-for-countries</t>
+          <t>https://openai.com/index/how-countries-can-end-the-capability-overhang</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>How Higgsfield turns simple ideas into cinematic social videos</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Higgsfield가 단순한 아이디어를 영화 같은 소셜 비디오로 바꾸는 방법</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/higgsfield</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Introducing Edu for Countries</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>국가별 교육 소개</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://openai.com/index/edu-for-countries</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>2026-01-29</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2026-01-20</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Horizon 1000: Advancing AI for primary healthcare</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Horizon 1000: 1차 의료를 위한 AI 발전</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://openai.com/index/horizon-1000</t>
         </is>
